--- a/public/exports/users.xlsx
+++ b/public/exports/users.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -39,6 +39,48 @@
   </si>
   <si>
     <t>created_at</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>0986082323</t>
+  </si>
+  <si>
+    <t>2020-07-26 13:29:52</t>
+  </si>
+  <si>
+    <t>minh06081997@gmail.com</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Vĩnh Tường</t>
+  </si>
+  <si>
+    <t>Nguyen Van Minh</t>
+  </si>
+  <si>
+    <t>minh@gmail.com</t>
+  </si>
+  <si>
+    <t>0986082324</t>
+  </si>
+  <si>
+    <t>minh1@gmail.com</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Ba Đình</t>
+  </si>
+  <si>
+    <t>2020-08-08 14:14:00</t>
   </si>
 </sst>
 </file>
@@ -377,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,6 +451,86 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/public/exports/users.xlsx
+++ b/public/exports/users.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -41,46 +41,19 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>Nam</t>
+    <t>Nguyen Van Minh</t>
   </si>
   <si>
     <t>admin@gmail.com</t>
   </si>
   <si>
-    <t>0986082323</t>
-  </si>
-  <si>
-    <t>2020-07-26 13:29:52</t>
+    <t>2022-05-05 14:02:42</t>
   </si>
   <si>
     <t>minh06081997@gmail.com</t>
   </si>
   <si>
-    <t>Vĩnh Phúc</t>
-  </si>
-  <si>
-    <t>Vĩnh Tường</t>
-  </si>
-  <si>
-    <t>Nguyen Van Minh</t>
-  </si>
-  <si>
     <t>minh@gmail.com</t>
-  </si>
-  <si>
-    <t>0986082324</t>
-  </si>
-  <si>
-    <t>minh1@gmail.com</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>Ba Đình</t>
-  </si>
-  <si>
-    <t>2020-08-08 14:14:00</t>
   </si>
 </sst>
 </file>
@@ -104,10 +77,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -415,11 +385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,11 +433,8 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -478,19 +445,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -498,46 +456,20 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -546,5 +478,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>